--- a/beneficio.xlsx
+++ b/beneficio.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fred/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBFDE0AD-51E7-294F-AF6D-F6243CB419EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1660B59-23AB-844C-87EB-A81C34B6D13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16480"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="beneficio (1)" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,13 @@
     <t>Mês/Ano</t>
   </si>
   <si>
-    <t>Valor Transferido</t>
+    <t>Valor_Transferido</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -878,11 +878,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D162"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/beneficio.xlsx
+++ b/beneficio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fred/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1660B59-23AB-844C-87EB-A81C34B6D13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45413C30-DD63-224D-BA5D-F39A91904E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
     <t>Mês/Ano</t>
   </si>
   <si>
-    <t>Valor_Transferido</t>
+    <t>Valor</t>
   </si>
 </sst>
 </file>
